--- a/Periode 12 Kerntaak 1,2,3/KT1/KT1.2/KT1.2.6 Globale planning/Globale Planning v1.0.0.xlsx
+++ b/Periode 12 Kerntaak 1,2,3/KT1/KT1.2/KT1.2.6 Globale planning/Globale Planning v1.0.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenley Strik\Documents\GitKraken\Periode_12_PVB_Kenley_Strik\Periode_12_PVB_Kenley_Strik\Periode 12 Kerntaak 1,2,3\KT1\KT1.2\KT1.2.6 Globale planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenley Strik\Documents\GitKraken\Periode_12_PVB_Kenley_Strik\Periode 12 Kerntaak 1,2,3\KT1\KT1.2\KT1.2.6 Globale planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2118C3CD-81C2-4CC7-AFBB-960AD813EA98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>Globale planning</t>
   </si>
@@ -149,15 +150,6 @@
     <t>Maken van verslag over de installatie en configuratiie en testen van de testomgeving</t>
   </si>
   <si>
-    <t>Kerntaak 2</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>5 uur 50 min</t>
-  </si>
-  <si>
     <t>1 uur 30 min</t>
   </si>
   <si>
@@ -180,15 +172,12 @@
   </si>
   <si>
     <t>2 uur 20 min</t>
-  </si>
-  <si>
-    <t>Maken van organisatieonderzoek</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,11 +591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +894,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>43194</v>
       </c>
@@ -921,7 +910,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>43195</v>
       </c>
@@ -937,7 +926,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>43196</v>
       </c>
@@ -953,7 +942,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -963,7 +952,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
@@ -975,7 +964,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>3</v>
       </c>
@@ -999,7 +988,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>43199</v>
       </c>
@@ -1016,17 +1005,14 @@
         <v>5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7">
@@ -1039,14 +1025,14 @@
         <v>6</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7">
@@ -1059,14 +1045,14 @@
         <v>7</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7">
@@ -1079,14 +1065,14 @@
         <v>8</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7">
@@ -1099,14 +1085,14 @@
         <v>9</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>43200</v>
       </c>
@@ -1123,14 +1109,14 @@
         <v>10</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8">
@@ -1143,14 +1129,14 @@
         <v>11</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8">
@@ -1163,14 +1149,14 @@
         <v>12</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8">
@@ -1183,14 +1169,14 @@
         <v>13</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>43201</v>
       </c>
@@ -1207,7 +1193,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>14</v>
@@ -1227,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>14</v>
@@ -1241,13 +1227,13 @@
         <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E34" s="7">
         <v>16</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>14</v>
@@ -1267,7 +1253,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>14</v>
@@ -1326,174 +1312,6 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>43206</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>43207</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="8">
-        <v>1</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>43208</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="7">
-        <v>3</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="7">
-        <v>2</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>43209</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="8">
-        <v>4</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="8">
-        <v>3</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>43210</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="7">
-        <v>5</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="7">
-        <v>4</v>
-      </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Periode 12 Kerntaak 1,2,3/KT1/KT1.2/KT1.2.6 Globale planning/Globale Planning v1.0.0.xlsx
+++ b/Periode 12 Kerntaak 1,2,3/KT1/KT1.2/KT1.2.6 Globale planning/Globale Planning v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenley Strik\Documents\GitKraken\Periode_12_PVB_Kenley_Strik\Periode 12 Kerntaak 1,2,3\KT1\KT1.2\KT1.2.6 Globale planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2118C3CD-81C2-4CC7-AFBB-960AD813EA98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4DEE6097-F668-4F03-BCA0-AF00612431D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="88">
   <si>
     <t>Globale planning</t>
   </si>
@@ -171,7 +171,124 @@
     <t>30 min</t>
   </si>
   <si>
-    <t>2 uur 20 min</t>
+    <t>Kerntaak 2</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Kerntaak 3</t>
+  </si>
+  <si>
+    <t>Koningsdag</t>
+  </si>
+  <si>
+    <t>Meivakantie</t>
+  </si>
+  <si>
+    <t>Hemelvaart</t>
+  </si>
+  <si>
+    <t>1 uur 45 min</t>
+  </si>
+  <si>
+    <t>Maken van organisatieonderzoek over reeds gebruikte databases</t>
+  </si>
+  <si>
+    <t>Maken van de database</t>
+  </si>
+  <si>
+    <t>Maken van procedure voot het aanleveren van databasegegevens</t>
+  </si>
+  <si>
+    <t>Maken van materialen-en middelenlijst voot het realiseren van de applicatie</t>
+  </si>
+  <si>
+    <t>Maken van klassendiagram vanuit Visual Studio</t>
+  </si>
+  <si>
+    <t>Maken van de website</t>
+  </si>
+  <si>
+    <t>Maken van taakverdeling voor het realiseren van de applicatie</t>
+  </si>
+  <si>
+    <t>Maken van gedetailleerd (technisch) testplan : intergrale systeemtest</t>
+  </si>
+  <si>
+    <t>Maken van lijst met test-tools (code-checkers)</t>
+  </si>
+  <si>
+    <t>Uitvoeren van de test en de resultaten van de test documenteren</t>
+  </si>
+  <si>
+    <t>Maken van aanpassingen aan de applicatie n.a.v testbevindingen en deze documenteren</t>
+  </si>
+  <si>
+    <t>DEADLINE KERNTAAK 2</t>
+  </si>
+  <si>
+    <t>DEADLINE KERNTAAK 3</t>
+  </si>
+  <si>
+    <t>Maken van implementatieplan (technisch en organisatorisch)</t>
+  </si>
+  <si>
+    <t>Maken van verslag over de resultaten van de acceptatietest</t>
+  </si>
+  <si>
+    <t>Maken van documentatie van het implementeren van de applicatie in de productieomgeving</t>
+  </si>
+  <si>
+    <t>Maken van evaluatierapport van het implementatietraject</t>
+  </si>
+  <si>
+    <t>Maken van genormliseerd databaseontwerp en bijgwerkte datadictionary</t>
+  </si>
+  <si>
+    <t>1 uur 50 min</t>
+  </si>
+  <si>
+    <t>2 uur 50 min</t>
+  </si>
+  <si>
+    <t>3 uur</t>
+  </si>
+  <si>
+    <t>2 uur 30 min</t>
+  </si>
+  <si>
+    <t>5 uur 50 min</t>
+  </si>
+  <si>
+    <t>4 uur</t>
+  </si>
+  <si>
+    <t>3 uur 20 min</t>
+  </si>
+  <si>
+    <t>5 uur</t>
+  </si>
+  <si>
+    <t>Acceptatietest uit laten voeren</t>
+  </si>
+  <si>
+    <t>Maken van acceptatietest</t>
   </si>
 </sst>
 </file>
@@ -592,17 +709,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="79.5703125" customWidth="1"/>
+    <col min="4" max="4" width="86" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
@@ -1005,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>14</v>
@@ -1025,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>14</v>
@@ -1045,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -1073,32 +1190,32 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7">
+      <c r="A27" s="9">
+        <v>43200</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>9</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>43200</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="8">
         <v>11</v>
       </c>
@@ -1157,32 +1274,32 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8">
-        <v>14</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="A31" s="9">
+        <v>43201</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="7">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>13</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="3"/>
+      <c r="G31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>43201</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A32" s="9"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7">
         <v>15</v>
       </c>
@@ -1253,7 +1370,7 @@
         <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>14</v>
@@ -1267,11 +1384,21 @@
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="C36" s="8">
+        <v>18</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="8">
+        <v>17</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1312,6 +1439,1352 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>43206</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="7">
+        <v>19</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="7">
+        <v>18</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7">
+        <v>20</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="7">
+        <v>19</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7">
+        <v>21</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="7">
+        <v>20</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>43207</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="8">
+        <v>22</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="8">
+        <v>21</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8">
+        <v>23</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="8">
+        <v>22</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>43208</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="7">
+        <v>24</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="7">
+        <v>23</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7">
+        <v>25</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="7">
+        <v>24</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7">
+        <v>26</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="7">
+        <v>25</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>43209</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="8">
+        <v>27</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="8">
+        <v>26</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>43210</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="7">
+        <v>27</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="7">
+        <v>26</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>43213</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="7">
+        <v>27</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="7">
+        <v>26</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>43214</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="8">
+        <v>27</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="8">
+        <v>26</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>43215</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="7">
+        <v>27</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="7">
+        <v>26</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>43216</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="8">
+        <v>27</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60" s="8">
+        <v>26</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>43217</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>43220</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="7">
+        <v>27</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="7">
+        <v>26</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>43221</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="8">
+        <v>27</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="8">
+        <v>26</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>43222</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="7">
+        <v>27</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="7">
+        <v>26</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>43223</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>43224</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>43227</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="7">
+        <v>27</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="7">
+        <v>26</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>43228</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="8">
+        <v>27</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="8">
+        <v>26</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>43229</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="7">
+        <v>27</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="7">
+        <v>26</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>43230</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>43231</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>43234</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="7">
+        <v>27</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" s="7">
+        <v>26</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>43235</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="8">
+        <v>27</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="8">
+        <v>26</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>43236</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="7">
+        <v>28</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="7">
+        <v>27</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7">
+        <v>29</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="7">
+        <v>28</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>43237</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="8">
+        <v>30</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="8">
+        <v>29</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8">
+        <v>31</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E86" s="8">
+        <v>30</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>43238</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="7">
+        <v>31</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" s="7">
+        <v>30</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>43241</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="7">
+        <v>31</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="7">
+        <v>30</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>43242</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="8">
+        <v>31</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E92" s="8">
+        <v>30</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>43243</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="7">
+        <v>31</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" s="7">
+        <v>30</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>43244</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="8">
+        <v>31</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E94" s="8">
+        <v>30</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>43245</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="7">
+        <v>31</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" s="7">
+        <v>30</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
+        <v>43245</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>43248</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="7">
+        <v>32</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E102" s="7">
+        <v>31</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="9"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7">
+        <v>33</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E103" s="7">
+        <v>32</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>43249</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="8">
+        <v>34</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" s="8">
+        <v>33</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>43250</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="7">
+        <v>35</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="7">
+        <v>34</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>43251</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="8">
+        <v>36</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" s="8">
+        <v>35</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>43252</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="15">
+        <v>43252</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Periode 12 Kerntaak 1,2,3/KT1/KT1.2/KT1.2.6 Globale planning/Globale Planning v1.0.0.xlsx
+++ b/Periode 12 Kerntaak 1,2,3/KT1/KT1.2/KT1.2.6 Globale planning/Globale Planning v1.0.0.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenley Strik\Documents\GitKraken\Periode_12_PVB_Kenley_Strik\Periode 12 Kerntaak 1,2,3\KT1\KT1.2\KT1.2.6 Globale planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4DEE6097-F668-4F03-BCA0-AF00612431D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Globale Planning" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="88">
   <si>
     <t>Globale planning</t>
   </si>
@@ -66,9 +65,6 @@
     <t>Maandag</t>
   </si>
   <si>
-    <t>Week van: 26-03-2018</t>
-  </si>
-  <si>
     <t>Kenley</t>
   </si>
   <si>
@@ -147,9 +143,6 @@
     <t>Maken van materialenlijst van de hard en software van de ontwikkelomgeving</t>
   </si>
   <si>
-    <t>Maken van verslag over de installatie en configuratiie en testen van de testomgeving</t>
-  </si>
-  <si>
     <t>1 uur 30 min</t>
   </si>
   <si>
@@ -289,12 +282,18 @@
   </si>
   <si>
     <t>Maken van acceptatietest</t>
+  </si>
+  <si>
+    <t>Week van: 26-3-2018</t>
+  </si>
+  <si>
+    <t>Maken van verslag over de installatie en configuratie en testen van de testomgeving</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N106" sqref="N106"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -824,16 +823,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -842,22 +841,22 @@
         <v>43186</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -866,22 +865,22 @@
         <v>43187</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -890,22 +889,22 @@
         <v>43188</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8">
         <v>4</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="8">
         <v>3</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -914,22 +913,22 @@
         <v>43189</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7">
         <v>4</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -945,7 +944,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -988,7 +987,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1000,11 +999,11 @@
         <v>43193</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1016,11 +1015,11 @@
         <v>43194</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1032,11 +1031,11 @@
         <v>43195</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1048,11 +1047,11 @@
         <v>43196</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1071,7 +1070,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1116,16 +1115,16 @@
         <v>6</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="7">
         <v>5</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -1136,16 +1135,16 @@
         <v>7</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="7">
         <v>6</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -1156,16 +1155,16 @@
         <v>8</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="7">
         <v>7</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -1176,16 +1175,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="7">
         <v>8</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -1194,22 +1193,22 @@
         <v>43200</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="8">
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="8">
         <v>9</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -1220,16 +1219,16 @@
         <v>11</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="8">
         <v>10</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1240,16 +1239,16 @@
         <v>12</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="8">
         <v>11</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -1260,16 +1259,16 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="8">
         <v>12</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -1278,22 +1277,22 @@
         <v>43201</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
         <v>14</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="7">
         <v>13</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="4"/>
     </row>
@@ -1304,16 +1303,16 @@
         <v>15</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="7">
         <v>14</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" s="4"/>
     </row>
@@ -1324,16 +1323,16 @@
         <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="7">
         <v>15</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33" s="4"/>
     </row>
@@ -1344,16 +1343,16 @@
         <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="7">
         <v>16</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" s="4"/>
     </row>
@@ -1364,16 +1363,16 @@
         <v>18</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E35" s="7">
         <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35" s="4"/>
     </row>
@@ -1382,22 +1381,22 @@
         <v>43202</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="8">
         <v>18</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E36" s="8">
         <v>17</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="4"/>
     </row>
@@ -1406,7 +1405,7 @@
         <v>43203</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1422,7 +1421,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -1441,7 +1440,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1463,7 +1462,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1508,16 +1507,16 @@
         <v>19</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" s="7">
         <v>18</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="3"/>
     </row>
@@ -1528,16 +1527,16 @@
         <v>20</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" s="7">
         <v>19</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="3"/>
     </row>
@@ -1548,16 +1547,16 @@
         <v>21</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" s="7">
         <v>20</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" s="3"/>
     </row>
@@ -1566,22 +1565,22 @@
         <v>43207</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="8">
         <v>22</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E47" s="8">
         <v>21</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -1592,16 +1591,16 @@
         <v>23</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E48" s="8">
         <v>22</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" s="3"/>
     </row>
@@ -1610,22 +1609,22 @@
         <v>43208</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7">
         <v>24</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="7">
         <v>23</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" s="4"/>
     </row>
@@ -1636,16 +1635,16 @@
         <v>25</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E50" s="7">
         <v>24</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -1656,935 +1655,945 @@
         <v>26</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E51" s="7">
         <v>25</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>43209</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7">
         <v>27</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="8">
+      <c r="D52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="7">
         <v>26</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>14</v>
+      <c r="F52" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
+        <v>43209</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="8">
+        <v>27</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="8">
+        <v>26</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
         <v>43210</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="7">
+      <c r="B54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
         <v>27</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="D54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="7">
         <v>26</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="F54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D57" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>43213</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="7">
-        <v>27</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="7">
-        <v>26</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
-        <v>43214</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="8">
+        <v>43213</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="7">
         <v>27</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="8">
+      <c r="D58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="7">
         <v>26</v>
       </c>
-      <c r="F58" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>14</v>
+      <c r="F58" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
-        <v>43215</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="7">
+        <v>43214</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="8">
         <v>27</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="7">
+      <c r="D59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="8">
         <v>26</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="4"/>
+      <c r="F59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
-        <v>43216</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="8">
+        <v>43215</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="7">
         <v>27</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="8">
+      <c r="D60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="7">
         <v>26</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>14</v>
+      <c r="F60" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
+        <v>43216</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="8">
+        <v>27</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="8">
+        <v>26</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>43217</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="B62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="3"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F65" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G65" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>43220</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="7">
-        <v>27</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" s="7">
-        <v>26</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
-        <v>43221</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="8">
+        <v>43220</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="7">
         <v>27</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E66" s="8">
+      <c r="D66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="7">
         <v>26</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>14</v>
+      <c r="F66" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
-        <v>43222</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="7">
+        <v>43221</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="8">
         <v>27</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E67" s="7">
+      <c r="D67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="8">
         <v>26</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="4"/>
+      <c r="F67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
-        <v>43223</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+        <v>43222</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="7">
+        <v>27</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="7">
+        <v>26</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
+        <v>43223</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
         <v>43224</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="B70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="3"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D73" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F73" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G73" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>43227</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="7">
-        <v>27</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E73" s="7">
-        <v>26</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
-        <v>43228</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="8">
+        <v>43227</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="7">
         <v>27</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="8">
+      <c r="D74" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="7">
         <v>26</v>
       </c>
-      <c r="F74" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>14</v>
+      <c r="F74" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
-        <v>43229</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="7">
+        <v>43228</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="8">
         <v>27</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E75" s="7">
+      <c r="D75" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="8">
         <v>26</v>
       </c>
-      <c r="F75" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="4"/>
+      <c r="F75" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
-        <v>43230</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
+        <v>43229</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="7">
+        <v>27</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="7">
+        <v>26</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
+        <v>43230</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
         <v>43231</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="B78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="3"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B81" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D81" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E81" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F81" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G81" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
-        <v>43234</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="7">
-        <v>27</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81" s="7">
-        <v>26</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
-        <v>43235</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="8">
+        <v>43234</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="7">
         <v>27</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E82" s="8">
+      <c r="D82" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="7">
         <v>26</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>14</v>
+      <c r="F82" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
+        <v>43235</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="8">
+        <v>27</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="8">
+        <v>26</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>43236</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B84" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="7">
+        <v>28</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="7">
+        <v>27</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7">
+        <v>29</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="7">
+        <v>28</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>43237</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="7">
-        <v>28</v>
-      </c>
-      <c r="D83" s="7" t="s">
+      <c r="C86" s="8">
+        <v>30</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E83" s="7">
-        <v>27</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7">
+      <c r="E86" s="8">
         <v>29</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="F86" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8">
+        <v>31</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E84" s="7">
-        <v>28</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
-        <v>43237</v>
-      </c>
-      <c r="B85" s="8" t="s">
+      <c r="E87" s="8">
+        <v>30</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>43238</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C88" s="7">
+        <v>31</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="7">
         <v>30</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="8">
-        <v>29</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8">
-        <v>31</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86" s="8">
-        <v>30</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
-        <v>43238</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="7">
-        <v>31</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" s="7">
-        <v>30</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+      <c r="F88" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="3"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B91" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E91" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F91" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
-        <v>43241</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="7">
-        <v>31</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E91" s="7">
-        <v>30</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
-        <v>43242</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="8">
+        <v>43241</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="7">
         <v>31</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E92" s="8">
+      <c r="D92" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="7">
         <v>30</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>14</v>
+      <c r="F92" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
-        <v>43243</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="7">
+        <v>43242</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="8">
         <v>31</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E93" s="7">
+      <c r="D93" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="8">
         <v>30</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="4"/>
+      <c r="F93" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
-        <v>43244</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="8">
+        <v>43243</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="7">
         <v>31</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="8">
+      <c r="D94" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="7">
         <v>30</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>14</v>
+      <c r="F94" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
+        <v>43244</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="8">
+        <v>31</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" s="8">
+        <v>30</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
         <v>43245</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="7">
+      <c r="B96" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="7">
         <v>31</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E95" s="7">
+      <c r="D96" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="7">
         <v>30</v>
       </c>
-      <c r="F95" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="15">
+      <c r="F96" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="15">
         <v>43245</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
+      <c r="A99" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -2594,196 +2603,206 @@
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D102" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E102" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F102" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G102" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
         <v>43248</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C103" s="7">
         <v>32</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E102" s="7">
+      <c r="D103" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="7">
         <v>31</v>
       </c>
-      <c r="F102" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7">
+      <c r="F103" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7">
         <v>33</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E103" s="7">
+      <c r="D104" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="7">
         <v>32</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
-        <v>43249</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="8">
-        <v>34</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E104" s="8">
-        <v>33</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>14</v>
+      <c r="F104" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
-        <v>43250</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="7">
-        <v>35</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E105" s="7">
+        <v>43249</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="8">
         <v>34</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="4"/>
+      <c r="D105" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105" s="8">
+        <v>33</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
-        <v>43251</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="8">
-        <v>36</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E106" s="8">
+        <v>43250</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="7">
         <v>35</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="D106" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E106" s="7">
+        <v>34</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="8" t="s">
-        <v>14</v>
+      <c r="G106" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
+        <v>43251</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="8">
+        <v>36</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E107" s="8">
+        <v>35</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
         <v>43252</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="15">
+      <c r="B108" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="15">
         <v>43252</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
       <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
